--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/TEXAS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/TEXAS_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2030"/>
+  <dimension ref="A1:D2024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -537,7 +537,7 @@
         <v>1588</v>
       </c>
       <c r="D13">
-        <v>0.009380353240002363</v>
+        <v>0.009380353240002364</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C44">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C57">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C83">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C89">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C99">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C100">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C144">
@@ -2401,7 +2401,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C155">
@@ -2440,14 +2440,14 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C158">
         <v>159</v>
       </c>
       <c r="D158">
-        <v>0.0009392167286904129</v>
+        <v>0.0009392167286904128</v>
       </c>
     </row>
     <row r="159">
@@ -2778,7 +2778,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C185">
@@ -2804,7 +2804,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C186">
@@ -2908,7 +2908,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C194">
@@ -3342,7 +3342,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C227">
@@ -3568,7 +3568,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C244">
@@ -3594,7 +3594,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C250">
@@ -3851,7 +3851,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C265">
@@ -4033,7 +4033,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C279">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C283">
@@ -4176,7 +4176,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C290">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C291">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C292">
@@ -4215,7 +4215,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C293">
@@ -4345,19 +4345,19 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C303">
         <v>161</v>
       </c>
       <c r="D303">
-        <v>0.0009510307755921791</v>
+        <v>0.0009510307755921792</v>
       </c>
     </row>
     <row r="304">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C306">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C307">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C308">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C315">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C322">
@@ -4675,7 +4675,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C328">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C335">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C343">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C344">
@@ -5078,7 +5078,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C359">
@@ -5260,7 +5260,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C373">
@@ -5273,7 +5273,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C374">
@@ -5286,7 +5286,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C375">
@@ -5312,7 +5312,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C377">
@@ -5338,7 +5338,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5468,7 +5468,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C389">
@@ -5481,7 +5481,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C390">
@@ -5663,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C404">
@@ -5741,7 +5741,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C410">
@@ -5754,7 +5754,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C411">
@@ -5767,7 +5767,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C412">
@@ -5780,7 +5780,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C413">
@@ -5954,20 +5954,20 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C426">
         <v>1608</v>
       </c>
       <c r="D426">
-        <v>0.009498493709020025</v>
+        <v>0.009498493709020023</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C427">
@@ -5980,7 +5980,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C428">
@@ -6084,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C436">
@@ -6136,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C440">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C448">
@@ -6292,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C452">
@@ -6312,13 +6312,13 @@
         <v>1546</v>
       </c>
       <c r="D453">
-        <v>0.009132258255065273</v>
+        <v>0.009132258255065272</v>
       </c>
     </row>
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C454">
@@ -6344,14 +6344,14 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C456">
         <v>1604</v>
       </c>
       <c r="D456">
-        <v>0.009474865615216493</v>
+        <v>0.009474865615216491</v>
       </c>
     </row>
     <row r="457">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C458">
@@ -6396,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C460">
@@ -6461,7 +6461,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C465">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C471">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C474">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C475">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C479">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C480">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C482">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C483">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C486">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C487">
@@ -6765,7 +6765,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C488">
@@ -6778,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C489">
@@ -6843,7 +6843,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C494">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C495">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C499">
@@ -6921,7 +6921,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C500">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7012,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C507">
@@ -7038,7 +7038,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C509">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C510">
@@ -7077,7 +7077,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C512">
@@ -7116,7 +7116,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C515">
@@ -7285,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C528">
@@ -7311,14 +7311,14 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C530">
         <v>163</v>
       </c>
       <c r="D530">
-        <v>0.0009628448224939453</v>
+        <v>0.0009628448224939452</v>
       </c>
     </row>
     <row r="531">
@@ -7337,7 +7337,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C532">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C534">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C538">
@@ -7428,7 +7428,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C539">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C551">
@@ -7680,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C558">
@@ -7693,7 +7693,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C559">
@@ -7771,7 +7771,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C565">
@@ -7849,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C571">
@@ -7901,7 +7901,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C575">
@@ -7940,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C578">
@@ -8031,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C585">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C587">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C589">
@@ -8109,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C591">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C593">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C596">
@@ -8252,7 +8252,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C602">
@@ -8265,7 +8265,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C607">
@@ -8343,7 +8343,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C609">
@@ -8356,7 +8356,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C610">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C613">
@@ -8512,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C622">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C623">
@@ -8538,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C624">
@@ -8590,7 +8590,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C628">
@@ -8603,7 +8603,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C634">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C635">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C640">
@@ -8790,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C643">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C645">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C651">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C658">
@@ -8998,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C659">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C668">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9219,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C676">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C677">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C681">
@@ -9362,7 +9362,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C687">
@@ -9375,7 +9375,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C688">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C695">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C700">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C701">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C703">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C706">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C708">
@@ -9648,7 +9648,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C709">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C711">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C715">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C718">
@@ -9811,13 +9811,13 @@
         <v>161</v>
       </c>
       <c r="D721">
-        <v>0.0009510307755921791</v>
+        <v>0.0009510307755921792</v>
       </c>
     </row>
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C722">
@@ -9830,7 +9830,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9869,7 +9869,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C726">
@@ -9882,7 +9882,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C727">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C740">
@@ -10064,7 +10064,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C741">
@@ -10077,7 +10077,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C742">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C748">
@@ -10194,7 +10194,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C751">
@@ -10207,7 +10207,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C752">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C753">
@@ -10563,7 +10563,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C779">
@@ -10589,7 +10589,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C781">
@@ -11460,7 +11460,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C848">
@@ -11803,7 +11803,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C874">
@@ -11907,7 +11907,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C882">
@@ -11959,7 +11959,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C886">
@@ -12037,7 +12037,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C892">
@@ -12050,7 +12050,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C893">
@@ -12154,7 +12154,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C901">
@@ -12211,7 +12211,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C905">
@@ -12224,7 +12224,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C906">
@@ -12276,7 +12276,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C910">
@@ -12367,7 +12367,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C917">
@@ -12606,7 +12606,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C935">
@@ -12840,7 +12840,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C953">
@@ -12931,7 +12931,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C960">
@@ -13048,7 +13048,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C969">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C977">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C983">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C986">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C988">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C989">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C992">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C996">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C999">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1001">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1002">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1003">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1004">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1007">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1016">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1017">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1018">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1021">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1027">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1028">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1030">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1031">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1062">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1076">
@@ -14457,7 +14457,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1077">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1091">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1092">
@@ -15042,7 +15042,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1122">
@@ -15198,7 +15198,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1134">
@@ -15224,7 +15224,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1136">
@@ -15692,7 +15692,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1172">
@@ -15952,7 +15952,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1192">
@@ -16004,7 +16004,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1196">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1197">
@@ -16108,7 +16108,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1204">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1205">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1210">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1211">
@@ -16888,7 +16888,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1264">
@@ -17122,7 +17122,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1282">
@@ -17148,7 +17148,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1284">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1285">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1286">
@@ -17187,7 +17187,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1287">
@@ -17200,7 +17200,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1288">
@@ -17213,7 +17213,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1289">
@@ -17226,7 +17226,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1290">
@@ -17278,7 +17278,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1294">
@@ -17291,7 +17291,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1295">
@@ -17304,7 +17304,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1296">
@@ -17317,7 +17317,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1297">
@@ -17330,7 +17330,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1298">
@@ -17356,7 +17356,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1300">
@@ -17369,7 +17369,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1301">
@@ -17382,7 +17382,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1302">
@@ -17408,7 +17408,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1304">
@@ -17712,7 +17712,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1327">
@@ -17764,7 +17764,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1331">
@@ -18011,7 +18011,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1350">
@@ -18063,7 +18063,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1354">
@@ -18076,7 +18076,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1355">
@@ -18258,7 +18258,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1369">
@@ -18271,7 +18271,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1370">
@@ -18310,7 +18310,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1373">
@@ -18336,7 +18336,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1375">
@@ -18388,7 +18388,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1379">
@@ -18518,7 +18518,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1389">
@@ -18531,7 +18531,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1390">
@@ -18661,7 +18661,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1400">
@@ -18765,7 +18765,7 @@
     <row r="1408">
       <c r="B1408" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1408">
@@ -18869,7 +18869,7 @@
     <row r="1416">
       <c r="B1416" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1416">
@@ -18908,7 +18908,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1419">
@@ -18921,7 +18921,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1420">
@@ -19025,7 +19025,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1428">
@@ -19129,7 +19129,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1436">
@@ -19142,7 +19142,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1437">
@@ -19220,7 +19220,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1443">
@@ -19246,7 +19246,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1445">
@@ -19259,7 +19259,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1446">
@@ -19272,7 +19272,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1447">
@@ -19337,7 +19337,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1452">
@@ -19493,7 +19493,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1464">
@@ -19519,7 +19519,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1466">
@@ -19571,7 +19571,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1470">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1489">
@@ -19849,7 +19849,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1491">
@@ -19927,7 +19927,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1497">
@@ -19940,7 +19940,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1498">
@@ -19979,7 +19979,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1501">
@@ -20018,7 +20018,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1504">
@@ -20197,7 +20197,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1517">
@@ -20210,7 +20210,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1518">
@@ -20275,7 +20275,7 @@
     <row r="1523">
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1523">
@@ -20301,7 +20301,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1525">
@@ -20444,7 +20444,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1536">
@@ -20522,7 +20522,7 @@
     <row r="1542">
       <c r="B1542" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1542">
@@ -20600,7 +20600,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1548">
@@ -20626,7 +20626,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1550">
@@ -20730,7 +20730,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1558">
@@ -20782,7 +20782,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1562">
@@ -20795,7 +20795,7 @@
     <row r="1563">
       <c r="B1563" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1563">
@@ -20808,7 +20808,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1564">
@@ -20821,7 +20821,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1565">
@@ -20834,7 +20834,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1566">
@@ -20847,7 +20847,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1567">
@@ -21455,7 +21455,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1613">
@@ -21546,7 +21546,7 @@
     <row r="1620">
       <c r="B1620" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1620">
@@ -21746,7 +21746,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1635">
@@ -21901,7 +21901,7 @@
         <v>161</v>
       </c>
       <c r="D1646">
-        <v>0.0009510307755921791</v>
+        <v>0.0009510307755921792</v>
       </c>
     </row>
     <row r="1647">
@@ -22336,14 +22336,14 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1680">
         <v>163</v>
       </c>
       <c r="D1680">
-        <v>0.0009628448224939453</v>
+        <v>0.0009628448224939452</v>
       </c>
     </row>
     <row r="1681">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1688">
@@ -22471,7 +22471,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1690">
@@ -22484,7 +22484,7 @@
     <row r="1691">
       <c r="B1691" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1691">
@@ -22640,7 +22640,7 @@
     <row r="1703">
       <c r="B1703" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1703">
@@ -22679,7 +22679,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1706">
@@ -22692,7 +22692,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1707">
@@ -22705,7 +22705,7 @@
     <row r="1708">
       <c r="B1708" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1708">
@@ -22744,7 +22744,7 @@
     <row r="1711">
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1711">
@@ -22783,7 +22783,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1714">
@@ -22796,7 +22796,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1715">
@@ -22874,7 +22874,7 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1721">
@@ -23017,7 +23017,7 @@
     <row r="1732">
       <c r="B1732" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1732">
@@ -23152,7 +23152,7 @@
     <row r="1742">
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1742">
@@ -23204,7 +23204,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1746">
@@ -23360,7 +23360,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1758">
@@ -23425,7 +23425,7 @@
     <row r="1763">
       <c r="B1763" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1763">
@@ -23451,7 +23451,7 @@
     <row r="1765">
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1765">
@@ -23555,7 +23555,7 @@
     <row r="1773">
       <c r="B1773" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1773">
@@ -23737,7 +23737,7 @@
     <row r="1787">
       <c r="B1787" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1787">
@@ -23750,7 +23750,7 @@
     <row r="1788">
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1788">
@@ -23971,7 +23971,7 @@
     <row r="1805">
       <c r="B1805" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1805">
@@ -23984,7 +23984,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1806">
@@ -24036,7 +24036,7 @@
     <row r="1810">
       <c r="B1810" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1810">
@@ -24049,7 +24049,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1811">
@@ -24062,7 +24062,7 @@
     <row r="1812">
       <c r="B1812" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1812">
@@ -24075,7 +24075,7 @@
     <row r="1813">
       <c r="B1813" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1813">
@@ -24218,7 +24218,7 @@
     <row r="1824">
       <c r="B1824" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1824">
@@ -24257,7 +24257,7 @@
     <row r="1827">
       <c r="B1827" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1827">
@@ -24296,7 +24296,7 @@
     <row r="1830">
       <c r="B1830" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1830">
@@ -24309,7 +24309,7 @@
     <row r="1831">
       <c r="B1831" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1831">
@@ -24374,7 +24374,7 @@
     <row r="1836">
       <c r="B1836" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1836">
@@ -24413,7 +24413,7 @@
     <row r="1839">
       <c r="B1839" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1839">
@@ -24465,7 +24465,7 @@
     <row r="1843">
       <c r="B1843" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1843">
@@ -24491,7 +24491,7 @@
     <row r="1845">
       <c r="B1845" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1845">
@@ -24634,7 +24634,7 @@
     <row r="1856">
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1856">
@@ -24686,7 +24686,7 @@
     <row r="1860">
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1860">
@@ -24699,7 +24699,7 @@
     <row r="1861">
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1861">
@@ -24751,7 +24751,7 @@
     <row r="1865">
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1865">
@@ -24894,7 +24894,7 @@
     <row r="1876">
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1876">
@@ -24933,7 +24933,7 @@
     <row r="1879">
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1879">
@@ -25037,7 +25037,7 @@
     <row r="1887">
       <c r="B1887" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1887">
@@ -25310,7 +25310,7 @@
     <row r="1908">
       <c r="B1908" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1908">
@@ -25492,7 +25492,7 @@
     <row r="1922">
       <c r="B1922" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1922">
@@ -25648,7 +25648,7 @@
     <row r="1934">
       <c r="B1934" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1934">
@@ -25661,7 +25661,7 @@
     <row r="1935">
       <c r="B1935" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1935">
@@ -26139,7 +26139,7 @@
     <row r="1971">
       <c r="B1971" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1971">
@@ -26165,7 +26165,7 @@
     <row r="1973">
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1973">
@@ -26191,7 +26191,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1975">
@@ -26334,7 +26334,7 @@
     <row r="1986">
       <c r="B1986" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1986">
@@ -26425,7 +26425,7 @@
     <row r="1993">
       <c r="B1993" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1993">
@@ -26490,7 +26490,7 @@
     <row r="1998">
       <c r="B1998" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1998">
@@ -26503,7 +26503,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1999">
@@ -26516,7 +26516,7 @@
     <row r="2000">
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2000">
@@ -26659,7 +26659,7 @@
     <row r="2011">
       <c r="B2011" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2011">
@@ -26672,7 +26672,7 @@
     <row r="2012">
       <c r="B2012" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2012">
@@ -26698,7 +26698,7 @@
     <row r="2014">
       <c r="B2014" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2014">
@@ -26737,14 +26737,14 @@
     <row r="2017">
       <c r="B2017" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2017">
         <v>155</v>
       </c>
       <c r="D2017">
-        <v>0.0009155886348868805</v>
+        <v>0.0009155886348868804</v>
       </c>
     </row>
     <row r="2018">
@@ -26836,41 +26836,6 @@
       </c>
       <c r="D2024">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
